--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/导出报表.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/导出报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\kelly0917\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D2DAD5-5DF3-49ED-B14D-F0FD57D4E954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F17823-64D3-4C81-8407-FF40CF062842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="765" windowWidth="24435" windowHeight="14400" activeTab="1" xr2:uid="{37F1E97C-2EE4-49C9-864E-56DAC7DA0A37}"/>
+    <workbookView xWindow="1545" yWindow="765" windowWidth="24435" windowHeight="14400" xr2:uid="{37F1E97C-2EE4-49C9-864E-56DAC7DA0A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,16 +117,10 @@
     <t>P_CN_LongDesc</t>
   </si>
   <si>
-    <t>P_RU_ShortDesc</t>
-  </si>
-  <si>
     <t>P_EN_ShortDesc</t>
   </si>
   <si>
     <t>P_CN_ShortDesc</t>
-  </si>
-  <si>
-    <t>P_Seq</t>
   </si>
   <si>
     <t>P_Code</t>
@@ -186,6 +180,14 @@
   </si>
   <si>
     <t>Revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_RU_ShortDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,27 +594,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C227268-4A43-4B65-B703-379AB9D612E4}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -682,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97AD301-0346-4E4B-9F0A-605BBF7B618D}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -694,74 +699,74 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/导出报表.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/导出报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\kelly0917\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\git\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F17823-64D3-4C81-8407-FF40CF062842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E38D3C7-E1F9-4E87-BC86-79E34973E13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="765" windowWidth="24435" windowHeight="14400" xr2:uid="{37F1E97C-2EE4-49C9-864E-56DAC7DA0A37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37F1E97C-2EE4-49C9-864E-56DAC7DA0A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,12 @@
     <definedName name="P_RU_LongDesc">Sheet1!$H$1</definedName>
     <definedName name="P_RU_ShortDesc">Sheet1!$E$1</definedName>
     <definedName name="P_RU_SizeDesc">Sheet1!$K$1</definedName>
+    <definedName name="P_Seq" localSheetId="0">Sheet1!$Z$1</definedName>
     <definedName name="P_Seq">Sheet1!$A$1</definedName>
     <definedName name="T_Code">Sheet1!$U$1</definedName>
     <definedName name="T_Desc">Sheet1!$V$1</definedName>
     <definedName name="T_Discipline">Sheet1!$X$1</definedName>
+    <definedName name="T_Seq" localSheetId="0">Sheet1!$Y$1</definedName>
     <definedName name="T_Seq">Sheet1!$T$1</definedName>
     <definedName name="T_Unit">Sheet1!$W$1</definedName>
   </definedNames>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>T_Discipline</t>
   </si>
@@ -188,6 +190,10 @@
   </si>
   <si>
     <t>P_Seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C227268-4A43-4B65-B703-379AB9D612E4}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,7 +609,7 @@
     <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -675,11 +681,18 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
